--- a/data/trans_media/MCS12_SP-Edad-trans_media.xlsx
+++ b/data/trans_media/MCS12_SP-Edad-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,69; 54,65</t>
+          <t>53,7; 54,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,49; 54,56</t>
+          <t>53,51; 54,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,85; 54,96</t>
+          <t>53,79; 54,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>54,13; 56,09</t>
+          <t>54,33; 56,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,88; 53,13</t>
+          <t>51,87; 53,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,71; 53,23</t>
+          <t>51,83; 53,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>52,78; 54,02</t>
+          <t>52,79; 54,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,02; 53,88</t>
+          <t>50,9; 53,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,0; 53,79</t>
+          <t>53,02; 53,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,86; 53,77</t>
+          <t>52,86; 53,78</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53,58; 54,37</t>
+          <t>53,57; 54,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,06; 54,82</t>
+          <t>53,08; 54,78</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,07; 53,95</t>
+          <t>53,04; 53,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,61; 53,58</t>
+          <t>52,54; 53,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,28; 53,39</t>
+          <t>52,32; 53,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,0; 54,79</t>
+          <t>52,86; 54,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,6; 51,9</t>
+          <t>50,57; 51,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,67; 52,06</t>
+          <t>50,58; 52,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,07; 53,21</t>
+          <t>51,99; 53,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,23; 53,11</t>
+          <t>51,32; 53,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,07; 52,86</t>
+          <t>52,09; 52,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,84; 52,68</t>
+          <t>51,88; 52,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>52,33; 53,14</t>
+          <t>52,37; 53,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,41; 53,66</t>
+          <t>52,34; 53,66</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,7; 52,85</t>
+          <t>51,69; 52,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,36; 52,56</t>
+          <t>51,33; 52,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,07; 53,17</t>
+          <t>52,04; 53,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,16; 53,59</t>
+          <t>52,04; 53,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,39; 51,56</t>
+          <t>50,41; 51,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,69; 50,22</t>
+          <t>48,6; 50,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,3; 52,56</t>
+          <t>51,32; 52,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,84; 52,96</t>
+          <t>51,85; 52,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,21; 52,01</t>
+          <t>51,2; 52,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,15; 51,19</t>
+          <t>50,18; 51,18</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,89; 52,68</t>
+          <t>51,85; 52,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52,2; 53,11</t>
+          <t>52,2; 53,1</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,74; 53,04</t>
+          <t>51,75; 53,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,03; 52,4</t>
+          <t>51,03; 52,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,88; 52,23</t>
+          <t>50,81; 52,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>51,71; 53,19</t>
+          <t>51,78; 53,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,08; 50,6</t>
+          <t>49,08; 50,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,64; 49,42</t>
+          <t>47,57; 49,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,37; 50,84</t>
+          <t>49,41; 50,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,17; 51,44</t>
+          <t>50,12; 51,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,63; 51,61</t>
+          <t>50,62; 51,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49,57; 50,7</t>
+          <t>49,56; 50,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,29; 51,37</t>
+          <t>50,41; 51,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>51,16; 52,2</t>
+          <t>51,11; 52,08</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>50,74; 52,28</t>
+          <t>50,74; 52,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,25; 51,84</t>
+          <t>50,11; 51,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,26; 52,79</t>
+          <t>51,21; 52,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,91; 52,27</t>
+          <t>50,78; 52,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,88; 50,71</t>
+          <t>48,84; 50,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,45; 48,62</t>
+          <t>46,69; 48,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,59; 49,57</t>
+          <t>47,61; 49,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,79; 50,07</t>
+          <t>48,76; 50,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,02; 51,2</t>
+          <t>50,07; 51,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,64; 49,9</t>
+          <t>48,54; 50,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>49,66; 50,99</t>
+          <t>49,68; 51,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,0; 50,96</t>
+          <t>50,03; 51,0</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,88; 51,54</t>
+          <t>49,85; 51,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,46; 51,16</t>
+          <t>49,47; 51,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>50,84; 52,24</t>
+          <t>50,8; 52,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50,48; 51,6</t>
+          <t>50,49; 51,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>49,16; 50,86</t>
+          <t>49,25; 50,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,97; 47,55</t>
+          <t>45,93; 47,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,25; 49,01</t>
+          <t>47,23; 48,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,53; 48,67</t>
+          <t>46,88; 48,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>49,79; 50,92</t>
+          <t>49,8; 50,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>47,71; 48,92</t>
+          <t>47,68; 48,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,97; 50,21</t>
+          <t>48,98; 50,21</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>48,21; 49,79</t>
+          <t>48,2; 49,77</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,29; 52,81</t>
+          <t>52,32; 52,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,7; 52,3</t>
+          <t>51,72; 52,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,19; 52,7</t>
+          <t>52,18; 52,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52,28; 52,92</t>
+          <t>52,29; 52,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,46; 51,07</t>
+          <t>50,47; 51,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,86; 49,56</t>
+          <t>48,85; 49,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,27; 50,95</t>
+          <t>50,26; 50,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>49,88; 50,84</t>
+          <t>49,93; 50,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,46; 51,85</t>
+          <t>51,43; 51,83</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50,39; 50,83</t>
+          <t>50,36; 50,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>51,28; 51,71</t>
+          <t>51,3; 51,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>51,13; 51,72</t>
+          <t>51,1; 51,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/MCS12_SP-Edad-trans_media.xlsx
+++ b/data/trans_media/MCS12_SP-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>53,7; 54,68</t>
+          <t>53,69; 54,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,51; 54,56</t>
+          <t>53,46; 54,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,79; 54,94</t>
+          <t>53,88; 54,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>51,87; 53,11</t>
+          <t>51,95; 53,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,83; 53,26</t>
+          <t>51,84; 53,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>52,79; 54,01</t>
+          <t>52,81; 54,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,02; 53,76</t>
+          <t>53,01; 53,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,86; 53,78</t>
+          <t>52,91; 53,82</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>53,57; 54,36</t>
+          <t>53,54; 54,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>53,04; 53,95</t>
+          <t>53,02; 53,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,54; 53,6</t>
+          <t>52,61; 53,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,32; 53,4</t>
+          <t>52,31; 53,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,57; 51,87</t>
+          <t>50,54; 51,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,58; 52,05</t>
+          <t>50,63; 52,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,99; 53,15</t>
+          <t>51,98; 53,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>52,09; 52,88</t>
+          <t>52,05; 52,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,88; 52,72</t>
+          <t>51,81; 52,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>52,37; 53,18</t>
+          <t>52,34; 53,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,69; 52,83</t>
+          <t>51,63; 52,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,33; 52,54</t>
+          <t>51,35; 52,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,04; 53,15</t>
+          <t>52,08; 53,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,41; 51,53</t>
+          <t>50,4; 51,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,6; 50,21</t>
+          <t>48,61; 50,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,32; 52,6</t>
+          <t>51,27; 52,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,2; 52,01</t>
+          <t>51,16; 52,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,18; 51,18</t>
+          <t>50,13; 51,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,85; 52,67</t>
+          <t>51,85; 52,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>51,75; 53,04</t>
+          <t>51,76; 53,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,03; 52,37</t>
+          <t>51,01; 52,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,81; 52,23</t>
+          <t>50,85; 52,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,08; 50,68</t>
+          <t>49,0; 50,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,57; 49,4</t>
+          <t>47,64; 49,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,41; 50,79</t>
+          <t>49,38; 50,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,62; 51,67</t>
+          <t>50,64; 51,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49,56; 50,66</t>
+          <t>49,55; 50,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,41; 51,35</t>
+          <t>50,34; 51,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>50,74; 52,24</t>
+          <t>50,72; 52,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,11; 51,88</t>
+          <t>50,04; 51,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>51,21; 52,78</t>
+          <t>51,29; 52,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,84; 50,72</t>
+          <t>48,8; 50,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,69; 48,75</t>
+          <t>46,65; 48,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>47,61; 49,61</t>
+          <t>47,56; 49,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>50,07; 51,29</t>
+          <t>50,0; 51,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,54; 50,0</t>
+          <t>48,6; 49,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>49,68; 51,0</t>
+          <t>49,67; 50,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>49,85; 51,48</t>
+          <t>49,88; 51,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,47; 51,23</t>
+          <t>49,48; 51,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>50,8; 52,28</t>
+          <t>50,82; 52,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>49,25; 50,81</t>
+          <t>49,34; 50,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,93; 47,66</t>
+          <t>45,98; 47,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,23; 48,98</t>
+          <t>47,22; 49,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>49,8; 50,93</t>
+          <t>49,78; 50,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>47,68; 48,89</t>
+          <t>47,63; 48,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,98; 50,21</t>
+          <t>49,0; 50,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,32; 52,8</t>
+          <t>52,32; 52,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,72; 52,3</t>
+          <t>51,76; 52,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,18; 52,71</t>
+          <t>52,18; 52,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,47; 51,05</t>
+          <t>50,47; 51,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,85; 49,57</t>
+          <t>48,9; 49,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>50,26; 50,93</t>
+          <t>50,28; 50,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,43; 51,83</t>
+          <t>51,46; 51,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50,36; 50,83</t>
+          <t>50,38; 50,84</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>51,3; 51,71</t>
+          <t>51,29; 51,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
